--- a/individual_case_outputs/harvard/535.xlsx
+++ b/individual_case_outputs/harvard/535.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>allergic rhinitis</t>
+          <t>non-allergic rhinitis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -652,11 +652,7 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>non-allergic rhinitis</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
